--- a/biology/Botanique/Agrostis_pourretii/Agrostis_pourretii.xlsx
+++ b/biology/Botanique/Agrostis_pourretii/Agrostis_pourretii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agroside de Pourret
-Agrostis pourretii, ou agrostide de Pourret[1], est une espèce végétale de la famille des Poaceae. 
+Agrostis pourretii, ou agrostide de Pourret, est une espèce végétale de la famille des Poaceae. 
 </t>
         </is>
       </c>
@@ -514,11 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée annuelle mesure de 7 à 50 cm de hauteur[1]. Sa tige lisse est genouillée à la base. 
-Appareil reproducteur
-L'inflorescence est une panicule peu dense d’épillets qui mesure jusqu'à 13 cm de longueur. Chaque épillet mesure entre 2 et 2,5 mm de longueur. La glume inférieure mesure 1 cm environ de plus que la supérieure ; la glumelle inférieure est environ deux fois plus longue que la supérieure, qui porte une arête d’environ 3 mm de longueur[1]. La pollinisation est anémophile. 
-Le fruit est un caryopse.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée annuelle mesure de 7 à 50 cm de hauteur. Sa tige lisse est genouillée à la base. 
 </t>
         </is>
       </c>
@@ -544,10 +558,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'inflorescence est une panicule peu dense d’épillets qui mesure jusqu'à 13 cm de longueur. Chaque épillet mesure entre 2 et 2,5 mm de longueur. La glume inférieure mesure 1 cm environ de plus que la supérieure ; la glumelle inférieure est environ deux fois plus longue que la supérieure, qui porte une arête d’environ 3 mm de longueur. La pollinisation est anémophile. 
+Le fruit est un caryopse.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,10 +596,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Agrostis_pourretii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agrostis_pourretii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique et nomenclature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne faut pas confondre Agrostis pourretii Willd. 1808 avec Agrostis pourretii Spreng. 1824, dont le statut est incertain.
 </t>
